--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -5,11 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="range1" vbProcedure="false">Sheet1!$A$3:$E$8</definedName>
+    <definedName function="false" hidden="false" name="range2" vbProcedure="false">Sheet2!$A$1:$D$4</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -77,20 +82,34 @@
   </si>
   <si>
     <t xml:space="preserve">poi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -150,8 +169,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -174,8 +197,8 @@
   </sheetPr>
   <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,4 +317,87 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>